--- a/ansonia/Table 3.xlsx
+++ b/ansonia/Table 3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5004" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="5000" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -170,10 +170,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ± Std Error
-min – max</t>
   </si>
   <si>
     <r>
@@ -237,12 +233,16 @@
     <t>LSUHC 10899
 Paratype</t>
   </si>
+  <si>
+    <t>Mean ± Std Error
+Min – Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,13 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -665,55 +665,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="7" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -742,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.2">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -794,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -820,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -846,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.2">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -872,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,7 +900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.2">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -924,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -950,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -976,7 +978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="31.2">
+    <row r="21" spans="5:5" ht="30">
       <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1064,14 +1066,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Equation.3" shapeId="1033" r:id="rId3"/>
-    <oleObject progId="Equation.3" shapeId="1034" r:id="rId4"/>
-    <oleObject progId="Equation.3" shapeId="1035" r:id="rId5"/>
-    <oleObject progId="Equation.3" shapeId="1036" r:id="rId6"/>
-  </oleObjects>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ansonia/Table 3.xlsx
+++ b/ansonia/Table 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>sex</t>
-  </si>
-  <si>
-    <t>Female (N=3)</t>
-  </si>
-  <si>
-    <t>Male (N=2)</t>
   </si>
   <si>
     <t>SVL</t>
@@ -129,9 +123,6 @@
 1.0–1.6</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>7.9 ± 0.4
 7.4–8.6</t>
   </si>
@@ -140,9 +131,6 @@
 5.5–6.2</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>14.4 ± 0.6
 13.7–15.7</t>
   </si>
@@ -151,9 +139,6 @@
 10.9–11.6</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>10.8 ± 0.3
 10.5–11.3</t>
   </si>
@@ -172,39 +157,30 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table 3.</t>
-    </r>
+    <t>LSUHC 11214
+Paratype</t>
+  </si>
+  <si>
+    <t>LSUHC 11211
+Paratype</t>
+  </si>
+  <si>
+    <t>LSUHC 11172
+Paratype</t>
+  </si>
+  <si>
+    <t>LSUHC 10899
+Paratype</t>
+  </si>
+  <si>
+    <t>Mean ± Std Error
+Min – Max</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Measurements of the type series summarized by gender. </t>
-    </r>
-  </si>
-  <si>
-    <t>LSUHC 11214
-Paratype</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>ZRC XXX</t>
@@ -222,36 +198,27 @@
     </r>
   </si>
   <si>
-    <t>LSUHC 11211
-Paratype</t>
-  </si>
-  <si>
-    <t>LSUHC 11172
-Paratype</t>
-  </si>
-  <si>
-    <t>LSUHC 10899
-Paratype</t>
-  </si>
-  <si>
-    <t>Mean ± Std Error
-Min – Max</t>
+    <t>Female (n=3)</t>
+  </si>
+  <si>
+    <t>Male (n=2)</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -276,9 +243,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,22 +266,15 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -325,12 +283,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -666,405 +623,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>29.3</v>
+        <v>8.5</v>
       </c>
       <c r="C4" s="2">
-        <v>27.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D4" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>23.6</v>
+        <v>7.1</v>
       </c>
       <c r="G4" s="2">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>6.9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D5" s="2">
         <v>8.5</v>
       </c>
-      <c r="C5" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G5" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
+        <v>6.3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="C6" s="2">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="D6" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="G6" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>3.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
         <v>3.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="G7" s="2">
         <v>3.3</v>
       </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>4.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D8" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G9" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C9" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D10" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G10" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="C11" s="2">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="D11" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="2">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G11" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="C12" s="2">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="D12" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>8.6</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="2">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>15.7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="20" spans="5:5" ht="30">
+      <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="G15" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="30">
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
